--- a/Mifos Automation Excels/Loan Product/6-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/6-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>productname</t>
   </si>
@@ -131,12 +131,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Reduce number of installments</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>maximumtranchecount</t>
   </si>
   <si>
-    <t>RBI (India) - Equal Installment - Declining Balance - Enable interest recalculation - None - Advance payment Reduce number of installments - preclosure Calculate till preclosure date - Daily - Multi disbursement - 1 - Repay on exact due date</t>
-  </si>
-  <si>
     <t>6-A</t>
   </si>
   <si>
@@ -228,6 +219,12 @@
   </si>
   <si>
     <t>Calculate till pre closure date</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -285,14 +282,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -312,10 +306,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -618,365 +608,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>41275</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>54</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>55</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B28" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="7">
-        <v>41640</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -998,11 +983,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>67</v>
+      <c r="A1" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/6-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/6-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -179,9 +179,6 @@
     <t>nominalinterestratedefault</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>Equal installments</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -662,10 +662,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -790,10 +790,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -817,12 +817,12 @@
         <v>35</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4">
         <v>41640</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>20</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="9">
         <v>2</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="9">
         <v>10000</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>20</v>
@@ -984,10 +984,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
